--- a/outputs/w1.xlsx
+++ b/outputs/w1.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.22661923076923</v>
+        <v>85.218625</v>
       </c>
       <c r="C3" t="n">
-        <v>296.1538461538461</v>
+        <v>294.6428571428572</v>
       </c>
       <c r="D3" t="n">
-        <v>1.544669230769231</v>
+        <v>1.545239285714286</v>
       </c>
       <c r="E3" t="n">
-        <v>1.373357692307692</v>
+        <v>1.378317857142857</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2862634974260672</v>
+        <v>0.2911273530430121</v>
       </c>
     </row>
     <row r="4">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.90655000000001</v>
+        <v>84.91804999999999</v>
       </c>
       <c r="C5" t="n">
         <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>1.538625</v>
+        <v>1.539075</v>
       </c>
       <c r="E5" t="n">
-        <v>1.3209</v>
+        <v>1.3243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2180216412135738</v>
+        <v>0.2282906323998522</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.18604999999999</v>
+        <v>85.17670000000001</v>
       </c>
       <c r="C6" t="n">
         <v>225</v>
       </c>
       <c r="D6" t="n">
-        <v>1.546</v>
+        <v>1.54605</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3426</v>
+        <v>1.34685</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2488262296412981</v>
+        <v>0.2502490113894016</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.458725</v>
+        <v>85.44557499999999</v>
       </c>
       <c r="C7" t="n">
         <v>350</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5538</v>
+        <v>1.553175</v>
       </c>
       <c r="E7" t="n">
-        <v>1.436475</v>
+        <v>1.446075</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3290257307978585</v>
+        <v>0.3365141756886388</v>
       </c>
     </row>
     <row r="8">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4116044266226774</v>
+        <v>0.397360420054545</v>
       </c>
       <c r="C9" t="n">
-        <v>139.5156456624682</v>
+        <v>135.9052541119661</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01201401745398331</v>
+        <v>0.01174845424933329</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1191766660821721</v>
+        <v>0.1179096799769855</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1334548551603728</v>
+        <v>0.1315134065644727</v>
       </c>
     </row>
   </sheetData>
